--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3844.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3844.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.138505358000607</v>
+        <v>3.29699969291687</v>
       </c>
       <c r="B1">
-        <v>1.71015669584173</v>
+        <v>6.664901733398438</v>
       </c>
       <c r="C1">
-        <v>3.567781005580063</v>
+        <v>6.610248565673828</v>
       </c>
       <c r="D1">
-        <v>4.733237906391913</v>
+        <v>6.846599578857422</v>
       </c>
       <c r="E1">
-        <v>1.414683204111628</v>
+        <v>3.466582298278809</v>
       </c>
     </row>
   </sheetData>
